--- a/阅读笔记/对话论文.xlsx
+++ b/阅读笔记/对话论文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mars\file\学习\研究\文档项目\DialoguePapers\阅读笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA23B1-5DDB-414D-9655-84CBFD00E1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB943E-57CE-43DB-B73D-0DE86531900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32724" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   <si>
     <t>Sequential Matching Network: A New Architecture for Multi-turn
 Response Selection in Retrieval-Based Chatbots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retrieval-Based Systems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,6 +225,60 @@
   </si>
   <si>
     <t>数据集未开源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL 2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling Multi-turn Conversation with Deep Utterance Aggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retrieval-Based System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related work simply concatenates the conversation utterances, ignoring the interactions among
+previous utterances for context modeli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDC,Douban,EDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，从语义学角度分析，对话的最后一个会话对回答影响最大，单独处理；
+2，使用了大量self.-attention；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，将会话和候选回答使用预训练词向量编码，然后经过GRU得到输出；
+2，使用最后一个会话，分别和前面所有会话进行交互（连接），得到输出；
+3，上一层结果和对应的self-attention值的连接作为GRU的输入；
+4，通过词向量得到一个相似度矩阵M1，以及上一层每个会话的输出计算一个相似度矩阵M2。
+然后通过CNN进行显著特征提取；
+5，将特征输入到GRU，最后计算GRU输出的注意力分布。然后通过分类器分类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，不具备推理能力；
+2，一句话包含多个意图时，模型出现混淆；
+3，出现多个主体时，对当前问题的主体识别出现混淆；
+4，有多个合适答案时，安全回答问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/cooelf/DeepUtteranceAggregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用theno实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -670,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="152.65" x14ac:dyDescent="0.4">
@@ -687,28 +740,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="194.25" x14ac:dyDescent="0.4">
@@ -716,34 +769,34 @@
         <v>2019</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="305.25" x14ac:dyDescent="0.4">
@@ -751,34 +804,72 @@
         <v>2019</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="291.39999999999998" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -788,8 +879,9 @@
     <hyperlink ref="M2" r:id="rId2" xr:uid="{CBCF2102-2D51-4785-B454-16FDC7E5B2A6}"/>
     <hyperlink ref="M3" r:id="rId3" xr:uid="{9E435A17-2D5F-40D1-818D-00B99C3290F0}"/>
     <hyperlink ref="M4" r:id="rId4" xr:uid="{6FA70571-AAAF-4D1B-95F1-8E00B1E2389B}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{858A5E4E-62BB-41C9-AEFA-65A7AEA1E091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/阅读笔记/对话论文.xlsx
+++ b/阅读笔记/对话论文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mars\file\学习\研究\文档项目\DialoguePapers\阅读笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB943E-57CE-43DB-B73D-0DE86531900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6050B26-CE65-471B-A04B-E701140FC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,11 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>related work simply concatenates the conversation utterances, ignoring the interactions among
-previous utterances for context modeli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UDC,Douban,EDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +274,89 @@
   </si>
   <si>
     <t>使用theno实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Turn Response Selection for Chatbots with Deep Attention Matching Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related work simply concatenates the conversation utterances, ignoring the interactions among
+previous utterances for context model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，将会话和候选回答使用预训练词向量编码。
+2，通过多层self-attention层堆叠得到多粒度表示；
+3，使用cross-attention计算多粒度表示中依赖关系。
+4，上述结果组成（self-attention堆叠层数，会话个数，候选回答个数）
+组成三维张量。（将堆叠层数看做是通道数）使用CNN进行显著特征提取。
+5，分类器分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，通过堆叠self-attention对句子进行多粒度表示。
+2，使用cross-attention计算会话与回答之间的依赖关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，不具备推理能力；
+2，有多个合适答案时，安全回答问题；
+3，对短句子判断比长句子差；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/baidu/Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国西江大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine-grained Post-training for Improving Retrieval-based Dialogue Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，没有较好的推理能力；
+2，没有考虑对话中的噪声；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，进一步利用对话语料，从对话中抽取局部对话作为训练语料；
+2，设计新的训练任务；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finetune
+将每轮会话按照BERT的方式在中间添加[CLS]，然后将回答添加到最后；
+做成一个分类任务。
+Post training
+Short Context-response Pair Training
+将每个样例的前面会话历史的前k轮，作为一个样例，进行预训练；
+Utterance Relevance Classification
+短文本+（回答、数据集随机采样、本轮对话历史采样）
+让模型学习历史信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/hanjanghoon/BERT_FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,BERT的训练任务不能很好适配对话任务；2，没有更加细粒度第利用对话语料的每轮会话；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -851,25 +929,92 @@
         <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="208.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -880,8 +1025,10 @@
     <hyperlink ref="M3" r:id="rId3" xr:uid="{9E435A17-2D5F-40D1-818D-00B99C3290F0}"/>
     <hyperlink ref="M4" r:id="rId4" xr:uid="{6FA70571-AAAF-4D1B-95F1-8E00B1E2389B}"/>
     <hyperlink ref="M5" r:id="rId5" xr:uid="{858A5E4E-62BB-41C9-AEFA-65A7AEA1E091}"/>
+    <hyperlink ref="M6" r:id="rId6" xr:uid="{B6A17400-DBCC-4D53-9D56-9BD6A9EAA29C}"/>
+    <hyperlink ref="M7" r:id="rId7" xr:uid="{C31DBEA1-39AF-42D8-B4AB-70426D955611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>